--- a/biology/Mycologie/Russule_émétique/Russule_émétique.xlsx
+++ b/biology/Mycologie/Russule_émétique/Russule_émétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Russule_%C3%A9m%C3%A9tique</t>
+          <t>Russule_émétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Russula emetica
-Russula emetica, la Russule émétique[1],[2], est une espèce de champignons basidiomycètes de la famille des Russulacées.
+Russula emetica, la Russule émétique est une espèce de champignons basidiomycètes de la famille des Russulacées.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Russule_%C3%A9m%C3%A9tique</t>
+          <t>Russule_émétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chapeau 3 à 10 cm, convexe puis aplati et légèrement déprimé, rouge cerise vif.
-Lames adnées, larges, serrées, blanchâtres à crème[3]
+Lames adnées, larges, serrées, blanchâtres à crème
 Sporée blanche
 Pied 5 à 9 cm, blanc, parfois renflé à la base.
 Chair blanche, rosée sous la cuticule, cassante comme celle de toutes les russules ; odeur fruitée faible ; saveur extrêmement piquante.</t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Russule_%C3%A9m%C3%A9tique</t>
+          <t>Russule_émétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La russule émétique est un champignon mycorhizien[3]. Il pousse sur les sols sablonneux, parmi les mousses et les sphaignes sous conifères, en particulier les pins. La période de fructification est entre juillet et octobre. C’est un champignon non comestible et rarement repérable.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La russule émétique est un champignon mycorhizien. Il pousse sur les sols sablonneux, parmi les mousses et les sphaignes sous conifères, en particulier les pins. La période de fructification est entre juillet et octobre. C’est un champignon non comestible et rarement repérable.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Russule_%C3%A9m%C3%A9tique</t>
+          <t>Russule_émétique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre russula comporte de multiples spécimens, dont la russule charbonnière qui est un genre de russule comestible. La russule jolie et la russule du hêtre peuvent également être confondues. Certains sont même identifiés par des moyens d’identification microscopiques, afin d'assurer l’identification avec certitude. Il est conseillé d'éviter cette famille de champignons si on n'est pas spécialiste[4]. Pour les distinguer, il suffit de goûter un petit morceau du champignon sans l'avaler.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre russula comporte de multiples spécimens, dont la russule charbonnière qui est un genre de russule comestible. La russule jolie et la russule du hêtre peuvent également être confondues. Certains sont même identifiés par des moyens d’identification microscopiques, afin d'assurer l’identification avec certitude. Il est conseillé d'éviter cette famille de champignons si on n'est pas spécialiste. Pour les distinguer, il suffit de goûter un petit morceau du champignon sans l'avaler.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Russule_%C3%A9m%C3%A9tique</t>
+          <t>Russule_émétique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Intoxication / Symptômes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Russule émétique est un champignon toxique qui peut créer des troubles gastro-intestinaux. Le symptôme le plus connu est le vomissement. En général, il apparaît très rapidement après ingestion[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Russule émétique est un champignon toxique qui peut créer des troubles gastro-intestinaux. Le symptôme le plus connu est le vomissement. En général, il apparaît très rapidement après ingestion.
 </t>
         </is>
       </c>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Russule_%C3%A9m%C3%A9tique</t>
+          <t>Russule_émétique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,9 +659,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Russula emetica a pour synonymes[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Russula emetica a pour synonymes :
 Agaricus emeticus Schaeff.
 Agaricus fallax Fr.
 Agaricus linnaei subsp. emeticus (Schaeff.) Fr., 1815
